--- a/test.xlsx
+++ b/test.xlsx
@@ -354,15 +354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>11</v>
+      </c>
+      <c r="B1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -354,20 +354,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>11</v>
       </c>
       <c r="B1">
         <v>22</v>
+      </c>
+      <c r="C1">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
